--- a/budget/ProjectBudget.xlsx
+++ b/budget/ProjectBudget.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC78F0B0-51E6-45A9-860C-608C4B3C7577}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B83B440-EF95-4343-8EF4-91BAC5761CC6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12650" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
   <si>
     <t>Project Budget</t>
   </si>
@@ -64,6 +64,33 @@
   </si>
   <si>
     <t>Equipment budget</t>
+  </si>
+  <si>
+    <t>Equipment</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>Cost</t>
+  </si>
+  <si>
+    <t>Desktops</t>
+  </si>
+  <si>
+    <t>Internet</t>
+  </si>
+  <si>
+    <t>Router</t>
+  </si>
+  <si>
+    <t>Chairs &amp; Tables</t>
+  </si>
+  <si>
+    <t>Total for Equipment</t>
+  </si>
+  <si>
+    <t>Total project expense</t>
   </si>
 </sst>
 </file>
@@ -433,10 +460,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S13"/>
+  <dimension ref="A1:S24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B17:B18"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -669,12 +696,207 @@
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
     </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A14" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
+      <c r="D14" s="1"/>
+      <c r="E14" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="I14" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="1"/>
+      <c r="K14" s="1"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B15" s="1"/>
+      <c r="C15" s="1"/>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="I15" s="4">
+        <v>800</v>
+      </c>
+      <c r="J15" s="1"/>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="4">
+        <f>E15*I15</f>
+        <v>3200</v>
+      </c>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.35">
+      <c r="A16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1">
+        <v>1</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" s="1"/>
+      <c r="H16" s="1"/>
+      <c r="I16" s="4">
+        <v>150</v>
+      </c>
+      <c r="J16" s="1"/>
+      <c r="K16" s="1"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="4">
+        <f>E16*I16</f>
+        <v>150</v>
+      </c>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A17" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1">
+        <v>3</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="4">
+        <v>100</v>
+      </c>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="4">
+        <f>E17*I17</f>
+        <v>300</v>
+      </c>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="4">
+        <v>900</v>
+      </c>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="4">
+        <f>E18*I18</f>
+        <v>3600</v>
+      </c>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A20" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="I20" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="4">
+        <f>SUM(M15:P18)</f>
+        <v>7250</v>
+      </c>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.35">
+      <c r="A24" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="M24" s="4">
+        <f>M10+M20</f>
+        <v>169370</v>
+      </c>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="51">
+    <mergeCell ref="M17:P17"/>
+    <mergeCell ref="M18:P18"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="M20:P20"/>
+    <mergeCell ref="A24:D24"/>
+    <mergeCell ref="M24:P24"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="E16:H16"/>
+    <mergeCell ref="E17:H17"/>
+    <mergeCell ref="E18:H18"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="A15:D15"/>
+    <mergeCell ref="E15:H15"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="M15:P15"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="M16:P16"/>
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="I10:L10"/>
     <mergeCell ref="M10:P10"/>
     <mergeCell ref="A13:S13"/>
+    <mergeCell ref="A14:D14"/>
+    <mergeCell ref="E14:H14"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="M14:P14"/>
     <mergeCell ref="I5:L5"/>
     <mergeCell ref="I6:L6"/>
     <mergeCell ref="I7:L7"/>
